--- a/data/trans_orig/P57B1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B1_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>26010</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17587</v>
+        <v>17066</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37348</v>
+        <v>36519</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04507997390551439</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03048127077410481</v>
+        <v>0.02957917444460147</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0647319958289352</v>
+        <v>0.06329362444926831</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>98</v>
@@ -762,19 +762,19 @@
         <v>58533</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>47649</v>
+        <v>48018</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>71754</v>
+        <v>70343</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.0717733392021194</v>
+        <v>0.07177333920211941</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05842755342467817</v>
+        <v>0.0588795621002968</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08798476294278611</v>
+        <v>0.0862552059406935</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>130</v>
@@ -783,19 +783,19 @@
         <v>84543</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>69720</v>
+        <v>70603</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>100262</v>
+        <v>100634</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06071313941545703</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05006876103618464</v>
+        <v>0.05070264028264808</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07200181004235853</v>
+        <v>0.07226896123257827</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>70294</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>55680</v>
+        <v>55828</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>85247</v>
+        <v>85919</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1218326902551716</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09650390285626798</v>
+        <v>0.09676146467766521</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1477497997418096</v>
+        <v>0.1489132926266954</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>228</v>
@@ -833,19 +833,19 @@
         <v>129048</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>115443</v>
+        <v>114675</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>146068</v>
+        <v>146553</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1582399743924441</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.141556337748205</v>
+        <v>0.1406148177265324</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1791096867141214</v>
+        <v>0.1797041682668861</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>319</v>
@@ -854,19 +854,19 @@
         <v>199342</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>180049</v>
+        <v>179266</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>222007</v>
+        <v>221090</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1431548837051626</v>
+        <v>0.1431548837051627</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1292995080253976</v>
+        <v>0.1287376519214356</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1594309877847389</v>
+        <v>0.1587729365522533</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>186528</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>165990</v>
+        <v>167119</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>207462</v>
+        <v>208185</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3232897501016073</v>
+        <v>0.3232897501016074</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2876927287985032</v>
+        <v>0.2896501488545851</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3595709884900247</v>
+        <v>0.3608242116038643</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>582</v>
@@ -904,19 +904,19 @@
         <v>339239</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>316114</v>
+        <v>317923</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>357627</v>
+        <v>363480</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.4159763553871953</v>
+        <v>0.4159763553871952</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3876207966303577</v>
+        <v>0.3898391617612776</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4385238801679888</v>
+        <v>0.4457016585878475</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>815</v>
@@ -925,19 +925,19 @@
         <v>525767</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>493914</v>
+        <v>494840</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>557523</v>
+        <v>558276</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3775723414827925</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3546971913630645</v>
+        <v>0.3553626038894838</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4003774860908918</v>
+        <v>0.4009179096067138</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>294138</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>272554</v>
+        <v>270766</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>319611</v>
+        <v>316451</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5097975857377067</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4723888065378649</v>
+        <v>0.4692896440920459</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5539469726989228</v>
+        <v>0.5484697060694523</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>508</v>
@@ -975,19 +975,19 @@
         <v>288704</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>268971</v>
+        <v>268344</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>310881</v>
+        <v>311634</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3540103310182413</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.329813986322115</v>
+        <v>0.3290446542883849</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3812043786444667</v>
+        <v>0.3821274876953833</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>841</v>
@@ -996,19 +996,19 @@
         <v>582842</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>549018</v>
+        <v>553174</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>615799</v>
+        <v>615885</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.4185596353965879</v>
+        <v>0.4185596353965877</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3942697708046728</v>
+        <v>0.3972541375856118</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4422277542707475</v>
+        <v>0.4422893792200593</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>41392</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>29997</v>
+        <v>30294</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>54709</v>
+        <v>56289</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01861043528834927</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01348696023240233</v>
+        <v>0.01362047987064418</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02459779910584095</v>
+        <v>0.0253082770969311</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>61</v>
@@ -1121,19 +1121,19 @@
         <v>44545</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>33653</v>
+        <v>33825</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>59350</v>
+        <v>60522</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02054421704396394</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01552059364392968</v>
+        <v>0.01560020966843773</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02737235486690503</v>
+        <v>0.02791260597137692</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>105</v>
@@ -1142,19 +1142,19 @@
         <v>85937</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>70378</v>
+        <v>69518</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>105663</v>
+        <v>105738</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01956502410369721</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01602269189596594</v>
+        <v>0.01582692194292751</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02405586613108393</v>
+        <v>0.02407302873286545</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>109954</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>90158</v>
+        <v>89423</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>132282</v>
+        <v>132157</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.04943648064821099</v>
+        <v>0.049436480648211</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04053634936061215</v>
+        <v>0.04020589709492277</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.059475802767633</v>
+        <v>0.05941928598576558</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>201</v>
@@ -1192,19 +1192,19 @@
         <v>143318</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>123446</v>
+        <v>125192</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>162834</v>
+        <v>165192</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06609850752268215</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05693364381230589</v>
+        <v>0.05773877612637301</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.075099031912066</v>
+        <v>0.07618684624678077</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>314</v>
@@ -1213,19 +1213,19 @@
         <v>253272</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>226534</v>
+        <v>227862</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>288530</v>
+        <v>285714</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0576614959319762</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05157419345700117</v>
+        <v>0.05187658517269293</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06568852645108167</v>
+        <v>0.06504761823395856</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>669473</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>619333</v>
+        <v>623881</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>713653</v>
+        <v>718216</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3010034818927007</v>
+        <v>0.3010034818927008</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2784599258379438</v>
+        <v>0.2805048294812987</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3208673945774973</v>
+        <v>0.3229185952732049</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1065</v>
@@ -1263,19 +1263,19 @@
         <v>768248</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>729552</v>
+        <v>728512</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>808059</v>
+        <v>807515</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.3543167054867601</v>
+        <v>0.35431670548676</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3364699426279318</v>
+        <v>0.3359903961924117</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3726777235761898</v>
+        <v>0.3724267345599566</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1720</v>
@@ -1284,19 +1284,19 @@
         <v>1437721</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1375053</v>
+        <v>1375038</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1501453</v>
+        <v>1501668</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.327320933076253</v>
+        <v>0.3273209330762529</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3130535110791599</v>
+        <v>0.3130500307757051</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3418306502729108</v>
+        <v>0.3418796154588736</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>1403319</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1353582</v>
+        <v>1351261</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1455407</v>
+        <v>1453290</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.630949602170739</v>
+        <v>0.6309496021707391</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6085872357498255</v>
+        <v>0.6075437274590111</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.654369198183433</v>
+        <v>0.6534172020680767</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1589</v>
@@ -1334,19 +1334,19 @@
         <v>1212141</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1169612</v>
+        <v>1168000</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1254038</v>
+        <v>1253894</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5590405699465938</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.539426328820615</v>
+        <v>0.5386827671593651</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5783635192192921</v>
+        <v>0.5782973653047403</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2763</v>
@@ -1355,19 +1355,19 @@
         <v>2615459</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2550703</v>
+        <v>2546572</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2680508</v>
+        <v>2681743</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.5954525468880737</v>
+        <v>0.5954525468880736</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.580709790743294</v>
+        <v>0.5797692438797514</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6102619282376481</v>
+        <v>0.6105431522347532</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>9305</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3981</v>
+        <v>4211</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>18986</v>
+        <v>19150</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01309414777596947</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005602723117424962</v>
+        <v>0.005926519453860762</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02671788645904973</v>
+        <v>0.02694913096060536</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>14</v>
@@ -1480,19 +1480,19 @@
         <v>9864</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5997</v>
+        <v>5617</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16570</v>
+        <v>16034</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01343598969034362</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008169073651460053</v>
+        <v>0.007651861437549924</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02257132285043283</v>
+        <v>0.02184066958537441</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>22</v>
@@ -1501,19 +1501,19 @@
         <v>19169</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>12191</v>
+        <v>12330</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>29983</v>
+        <v>28939</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01326785170105865</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00843798442568012</v>
+        <v>0.008534224055612155</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02075288951702498</v>
+        <v>0.02003082542118523</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>18998</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>11783</v>
+        <v>11716</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>30158</v>
+        <v>29968</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.0267353597067768</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01658112040901385</v>
+        <v>0.01648764388768025</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04244038644434237</v>
+        <v>0.0421724608164012</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>46</v>
@@ -1551,19 +1551,19 @@
         <v>38542</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>27857</v>
+        <v>27707</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>53101</v>
+        <v>52387</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05250034877317939</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03794490725793113</v>
+        <v>0.03774081038779008</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.07233130449402385</v>
+        <v>0.07135880316402761</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>65</v>
@@ -1572,19 +1572,19 @@
         <v>57541</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>44048</v>
+        <v>43421</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>74139</v>
+        <v>74229</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.03982760949395547</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03048836440754396</v>
+        <v>0.03005487754230151</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05131623973854903</v>
+        <v>0.05137885340301038</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>197319</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>172393</v>
+        <v>174637</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>224667</v>
+        <v>224631</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2776764270054664</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2425994233656443</v>
+        <v>0.2457568980619984</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3161611277516123</v>
+        <v>0.3161114704716303</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>285</v>
@@ -1622,19 +1622,19 @@
         <v>204237</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>184624</v>
+        <v>183111</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>226510</v>
+        <v>226315</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2782020550633721</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.251486903393043</v>
+        <v>0.2494257550704577</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3085409932903087</v>
+        <v>0.3082755728650417</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>481</v>
@@ -1643,19 +1643,19 @@
         <v>401556</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>370522</v>
+        <v>369097</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>437306</v>
+        <v>434754</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2779435202229918</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2564628926517319</v>
+        <v>0.2554763189371733</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.30268839626549</v>
+        <v>0.3009220729921515</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>484986</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>456984</v>
+        <v>458348</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>512779</v>
+        <v>510476</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6824940655117872</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6430882802097908</v>
+        <v>0.6450079631697307</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7216061209257419</v>
+        <v>0.7183650702557396</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>658</v>
@@ -1693,19 +1693,19 @@
         <v>481488</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>457019</v>
+        <v>459516</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>503626</v>
+        <v>503029</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6558616064731048</v>
+        <v>0.6558616064731049</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6225305345949184</v>
+        <v>0.6259322280986148</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6860164840889804</v>
+        <v>0.6852038194428711</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1115</v>
@@ -1714,19 +1714,19 @@
         <v>966474</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>930475</v>
+        <v>932045</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>999793</v>
+        <v>1002650</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6689610185819941</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6440439212447371</v>
+        <v>0.6451301069422319</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6920233850218657</v>
+        <v>0.6940005574258037</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>76707</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>60858</v>
+        <v>60242</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>95197</v>
+        <v>94248</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02184310142981418</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01733008865469645</v>
+        <v>0.01715452278521495</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02710851206001979</v>
+        <v>0.02683816069346527</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>173</v>
@@ -1839,19 +1839,19 @@
         <v>112942</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>96867</v>
+        <v>97246</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>131472</v>
+        <v>134222</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.03037776489553965</v>
+        <v>0.03037776489553964</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02605414854726354</v>
+        <v>0.02615614700787692</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03536194011369766</v>
+        <v>0.03610143452367946</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>257</v>
@@ -1860,19 +1860,19 @@
         <v>189648</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>166770</v>
+        <v>167590</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>217760</v>
+        <v>215951</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0262321395816867</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02306759334210473</v>
+        <v>0.02318103787261508</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03012051633881642</v>
+        <v>0.02987026431960725</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>199246</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>172999</v>
+        <v>172886</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>228673</v>
+        <v>227296</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05673741982906093</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04926339772190819</v>
+        <v>0.04923109565336532</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06511729812227124</v>
+        <v>0.06472494997906263</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>475</v>
@@ -1910,19 +1910,19 @@
         <v>310909</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>282907</v>
+        <v>283441</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>342152</v>
+        <v>342111</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08362470210980323</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07609313761002851</v>
+        <v>0.07623658154393645</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09202805496625868</v>
+        <v>0.09201695279715388</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>698</v>
@@ -1931,19 +1931,19 @@
         <v>510155</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>474329</v>
+        <v>467627</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>550415</v>
+        <v>552421</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.07056448028718679</v>
+        <v>0.0705644802871868</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06560909198699258</v>
+        <v>0.06468208646783387</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07613332919265507</v>
+        <v>0.07641071166139973</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>1053321</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>999315</v>
+        <v>997660</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1112987</v>
+        <v>1116487</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2999447712575361</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2845662143427907</v>
+        <v>0.2840949102977233</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.316935531412498</v>
+        <v>0.31793222494158</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1932</v>
@@ -1981,19 +1981,19 @@
         <v>1311724</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1259379</v>
+        <v>1259448</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1362778</v>
+        <v>1362058</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.35281230673591</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3387332492412412</v>
+        <v>0.3387518799891988</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3665443577668125</v>
+        <v>0.3663506748065402</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3016</v>
@@ -2002,19 +2002,19 @@
         <v>2365044</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2286788</v>
+        <v>2281403</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2446181</v>
+        <v>2438175</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3271324431724161</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3163080856969999</v>
+        <v>0.3155632296795314</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3383552647703908</v>
+        <v>0.3372478996192422</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>2182442</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2119421</v>
+        <v>2115771</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2242466</v>
+        <v>2242887</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6214747074835888</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6035287823260909</v>
+        <v>0.6024892733563907</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6385670814701666</v>
+        <v>0.6386871435069515</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2755</v>
@@ -2052,19 +2052,19 @@
         <v>1982334</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1929150</v>
+        <v>1928696</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2035423</v>
+        <v>2043212</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5331852262587472</v>
+        <v>0.5331852262587471</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5188805386664705</v>
+        <v>0.5187584250490785</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5474645980487816</v>
+        <v>0.5495595245454926</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4719</v>
@@ -2073,19 +2073,19 @@
         <v>4164776</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4084386</v>
+        <v>4077367</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4247362</v>
+        <v>4249204</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5760709369587103</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5649514646281885</v>
+        <v>0.5639806340557844</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5874941908197466</v>
+        <v>0.5877491117446332</v>
       </c>
     </row>
     <row r="23">
